--- a/laboratorio2/laboratorio2-pregunta1.xlsx
+++ b/laboratorio2/laboratorio2-pregunta1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9020" yWindow="440" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <r>
       <t>x</t>
@@ -51,81 +51,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>∑x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>∑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>µ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
     <t>PREGUNTA 1</t>
   </si>
 </sst>
@@ -133,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -162,13 +87,6 @@
       <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -568,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -579,12 +497,12 @@
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17">
+    <row r="3" spans="1:2" ht="17">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -592,52 +510,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>0.18</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <f>SUMPRODUCT(A4:A7,B4:B7)</f>
-        <v>1.0299999999999998</v>
-      </c>
     </row>
-    <row r="5" spans="1:5" ht="17">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>-1.54</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <f>SUM(B4:B7)</f>
-        <v>7</v>
-      </c>
     </row>
-    <row r="6" spans="1:5" ht="16">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>0.42</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <f>E4/E5</f>
-        <v>0.1471428571428571</v>
-      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>0.95</v>
       </c>
